--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ifnk-Ifnar2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ifnk-Ifnar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -88,16 +94,10 @@
     <t>Ifnar2</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1379033333333333</v>
+        <v>0.388702</v>
       </c>
       <c r="H2">
-        <v>0.41371</v>
+        <v>0.777404</v>
       </c>
       <c r="I2">
-        <v>0.1151434304008603</v>
+        <v>0.3146783286756539</v>
       </c>
       <c r="J2">
-        <v>0.1151434304008603</v>
+        <v>0.2343691871525104</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.4475095</v>
+        <v>30.7693535</v>
       </c>
       <c r="N2">
-        <v>58.895019</v>
+        <v>61.538707</v>
       </c>
       <c r="O2">
-        <v>0.1188040616343075</v>
+        <v>0.1179731387858698</v>
       </c>
       <c r="P2">
-        <v>0.08432571340736818</v>
+        <v>0.08351747770158975</v>
       </c>
       <c r="Q2">
-        <v>4.060909718415001</v>
+        <v>11.960109244157</v>
       </c>
       <c r="R2">
-        <v>24.36545831049</v>
+        <v>47.840436976628</v>
       </c>
       <c r="S2">
-        <v>0.01367950720212941</v>
+        <v>0.03712359014175847</v>
       </c>
       <c r="T2">
-        <v>0.009709551912724193</v>
+        <v>0.0195739233619495</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1379033333333333</v>
+        <v>0.388702</v>
       </c>
       <c r="H3">
-        <v>0.41371</v>
+        <v>0.777404</v>
       </c>
       <c r="I3">
-        <v>0.1151434304008603</v>
+        <v>0.3146783286756539</v>
       </c>
       <c r="J3">
-        <v>0.1151434304008603</v>
+        <v>0.2343691871525104</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>72.556906</v>
       </c>
       <c r="O3">
-        <v>0.09757537257289006</v>
+        <v>0.09273042782012855</v>
       </c>
       <c r="P3">
-        <v>0.1038867626663191</v>
+        <v>0.09847086613229204</v>
       </c>
       <c r="Q3">
-        <v>3.335279731251112</v>
+        <v>9.401004825337333</v>
       </c>
       <c r="R3">
-        <v>30.01751758126</v>
+        <v>56.40602895202399</v>
       </c>
       <c r="S3">
-        <v>0.01123516312068458</v>
+        <v>0.02918025604381641</v>
       </c>
       <c r="T3">
-        <v>0.01196187822664001</v>
+        <v>0.02307853685362895</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1379033333333333</v>
+        <v>0.388702</v>
       </c>
       <c r="H4">
-        <v>0.41371</v>
+        <v>0.777404</v>
       </c>
       <c r="I4">
-        <v>0.1151434304008603</v>
+        <v>0.3146783286756539</v>
       </c>
       <c r="J4">
-        <v>0.1151434304008603</v>
+        <v>0.2343691871525104</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>73.143293</v>
+        <v>81.77185533333333</v>
       </c>
       <c r="N4">
-        <v>219.429879</v>
+        <v>245.315566</v>
       </c>
       <c r="O4">
-        <v>0.2950918579280266</v>
+        <v>0.3135224286729781</v>
       </c>
       <c r="P4">
-        <v>0.3141790494976744</v>
+        <v>0.3329309033622996</v>
       </c>
       <c r="Q4">
-        <v>10.08670391567667</v>
+        <v>31.78488371177733</v>
       </c>
       <c r="R4">
-        <v>90.78033524109</v>
+        <v>190.709302270664</v>
       </c>
       <c r="S4">
-        <v>0.0339778888051963</v>
+        <v>0.09865871385714466</v>
       </c>
       <c r="T4">
-        <v>0.03617565351924393</v>
+        <v>0.07802874519897314</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1379033333333333</v>
+        <v>0.388702</v>
       </c>
       <c r="H5">
-        <v>0.41371</v>
+        <v>0.777404</v>
       </c>
       <c r="I5">
-        <v>0.1151434304008603</v>
+        <v>0.3146783286756539</v>
       </c>
       <c r="J5">
-        <v>0.1151434304008603</v>
+        <v>0.2343691871525104</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.72803</v>
+        <v>14.8441875</v>
       </c>
       <c r="N5">
-        <v>31.45606</v>
+        <v>29.688375</v>
       </c>
       <c r="O5">
-        <v>0.06345371398916563</v>
+        <v>0.05691427322647431</v>
       </c>
       <c r="P5">
-        <v>0.04503869334832845</v>
+        <v>0.04029168498874919</v>
       </c>
       <c r="Q5">
-        <v>2.168947763766667</v>
+        <v>5.769965369625</v>
       </c>
       <c r="R5">
-        <v>13.0136865826</v>
+        <v>23.0798614785</v>
       </c>
       <c r="S5">
-        <v>0.007306278300387592</v>
+        <v>0.01790968837669645</v>
       </c>
       <c r="T5">
-        <v>0.005185909652898949</v>
+        <v>0.009443129459818152</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.1379033333333333</v>
+        <v>0.388702</v>
       </c>
       <c r="H6">
-        <v>0.41371</v>
+        <v>0.777404</v>
       </c>
       <c r="I6">
-        <v>0.1151434304008603</v>
+        <v>0.3146783286756539</v>
       </c>
       <c r="J6">
-        <v>0.1151434304008603</v>
+        <v>0.2343691871525104</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.91393266666667</v>
+        <v>53.27148833333334</v>
       </c>
       <c r="N6">
-        <v>68.741798</v>
+        <v>159.814465</v>
       </c>
       <c r="O6">
-        <v>0.09244477088342698</v>
+        <v>0.2042488376129897</v>
       </c>
       <c r="P6">
-        <v>0.09842430235492741</v>
+        <v>0.2168927763956593</v>
       </c>
       <c r="Q6">
-        <v>3.15990769450889</v>
+        <v>20.70673405814333</v>
       </c>
       <c r="R6">
-        <v>28.43916925058</v>
+        <v>124.24040434886</v>
       </c>
       <c r="S6">
-        <v>0.01064440804213936</v>
+        <v>0.06427268285400063</v>
       </c>
       <c r="T6">
-        <v>0.01133291180795782</v>
+        <v>0.05083298370310187</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.1379033333333333</v>
+        <v>0.388702</v>
       </c>
       <c r="H7">
-        <v>0.41371</v>
+        <v>0.777404</v>
       </c>
       <c r="I7">
-        <v>0.1151434304008603</v>
+        <v>0.3146783286756539</v>
       </c>
       <c r="J7">
-        <v>0.1151434304008603</v>
+        <v>0.2343691871525104</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.44778433333333</v>
+        <v>55.97408466666666</v>
       </c>
       <c r="N7">
-        <v>247.343353</v>
+        <v>167.922254</v>
       </c>
       <c r="O7">
-        <v>0.332630222992183</v>
+        <v>0.2146108938815595</v>
       </c>
       <c r="P7">
-        <v>0.3541454787253825</v>
+        <v>0.22789629141941</v>
       </c>
       <c r="Q7">
-        <v>11.36982428551445</v>
+        <v>21.75723865810266</v>
       </c>
       <c r="R7">
-        <v>102.32841856963</v>
+        <v>130.543431948616</v>
       </c>
       <c r="S7">
-        <v>0.03830018493032308</v>
+        <v>0.06753339740223727</v>
       </c>
       <c r="T7">
-        <v>0.04077752528139544</v>
+        <v>0.05341186857503876</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.059762333333333</v>
+        <v>0.2410223333333333</v>
       </c>
       <c r="H8">
-        <v>3.179287</v>
+        <v>0.723067</v>
       </c>
       <c r="I8">
-        <v>0.8848565695991397</v>
+        <v>0.1951224975092479</v>
       </c>
       <c r="J8">
-        <v>0.8848565695991397</v>
+        <v>0.217987848077453</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.4475095</v>
+        <v>30.7693535</v>
       </c>
       <c r="N8">
-        <v>58.895019</v>
+        <v>61.538707</v>
       </c>
       <c r="O8">
-        <v>0.1188040616343075</v>
+        <v>0.1179731387858698</v>
       </c>
       <c r="P8">
-        <v>0.08432571340736818</v>
+        <v>0.08351747770158975</v>
       </c>
       <c r="Q8">
-        <v>31.20736137857551</v>
+        <v>7.416101375728167</v>
       </c>
       <c r="R8">
-        <v>187.244168271453</v>
+        <v>44.496608254369</v>
       </c>
       <c r="S8">
-        <v>0.1051245544321781</v>
+        <v>0.02301921347890404</v>
       </c>
       <c r="T8">
-        <v>0.07461616149464399</v>
+        <v>0.01820579524102621</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.059762333333333</v>
+        <v>0.2410223333333333</v>
       </c>
       <c r="H9">
-        <v>3.179287</v>
+        <v>0.723067</v>
       </c>
       <c r="I9">
-        <v>0.8848565695991397</v>
+        <v>0.1951224975092479</v>
       </c>
       <c r="J9">
-        <v>0.8848565695991397</v>
+        <v>0.217987848077453</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>72.556906</v>
       </c>
       <c r="O9">
-        <v>0.09757537257289006</v>
+        <v>0.09273042782012855</v>
       </c>
       <c r="P9">
-        <v>0.1038867626663191</v>
+        <v>0.09847086613229204</v>
       </c>
       <c r="Q9">
-        <v>25.63102533400245</v>
+        <v>5.829278261189112</v>
       </c>
       <c r="R9">
-        <v>230.679228006022</v>
+        <v>52.463504350702</v>
       </c>
       <c r="S9">
-        <v>0.08634020945220548</v>
+        <v>0.01809379267136453</v>
       </c>
       <c r="T9">
-        <v>0.09192488443967907</v>
+        <v>0.02146545220650129</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.059762333333333</v>
+        <v>0.2410223333333333</v>
       </c>
       <c r="H10">
-        <v>3.179287</v>
+        <v>0.723067</v>
       </c>
       <c r="I10">
-        <v>0.8848565695991397</v>
+        <v>0.1951224975092479</v>
       </c>
       <c r="J10">
-        <v>0.8848565695991397</v>
+        <v>0.217987848077453</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>73.143293</v>
+        <v>81.77185533333333</v>
       </c>
       <c r="N10">
-        <v>219.429879</v>
+        <v>245.315566</v>
       </c>
       <c r="O10">
-        <v>0.2950918579280266</v>
+        <v>0.3135224286729781</v>
       </c>
       <c r="P10">
-        <v>0.3141790494976744</v>
+        <v>0.3329309033622996</v>
       </c>
       <c r="Q10">
-        <v>77.51450685736367</v>
+        <v>19.70884337343578</v>
       </c>
       <c r="R10">
-        <v>697.6305617162731</v>
+        <v>177.379590360922</v>
       </c>
       <c r="S10">
-        <v>0.2611139691228304</v>
+        <v>0.06117527930783653</v>
       </c>
       <c r="T10">
-        <v>0.2780033959784305</v>
+        <v>0.07257489118243014</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.059762333333333</v>
+        <v>0.2410223333333333</v>
       </c>
       <c r="H11">
-        <v>3.179287</v>
+        <v>0.723067</v>
       </c>
       <c r="I11">
-        <v>0.8848565695991397</v>
+        <v>0.1951224975092479</v>
       </c>
       <c r="J11">
-        <v>0.8848565695991397</v>
+        <v>0.217987848077453</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.72803</v>
+        <v>14.8441875</v>
       </c>
       <c r="N11">
-        <v>31.45606</v>
+        <v>29.688375</v>
       </c>
       <c r="O11">
-        <v>0.06345371398916563</v>
+        <v>0.05691427322647431</v>
       </c>
       <c r="P11">
-        <v>0.04503869334832845</v>
+        <v>0.04029168498874919</v>
       </c>
       <c r="Q11">
-        <v>16.66797377153667</v>
+        <v>3.5777807076875</v>
       </c>
       <c r="R11">
-        <v>100.00784262922</v>
+        <v>21.466684246125</v>
       </c>
       <c r="S11">
-        <v>0.05614743568877804</v>
+        <v>0.01110525513587339</v>
       </c>
       <c r="T11">
-        <v>0.03985278369542951</v>
+        <v>0.008783097706112051</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.059762333333333</v>
+        <v>0.2410223333333333</v>
       </c>
       <c r="H12">
-        <v>3.179287</v>
+        <v>0.723067</v>
       </c>
       <c r="I12">
-        <v>0.8848565695991397</v>
+        <v>0.1951224975092479</v>
       </c>
       <c r="J12">
-        <v>0.8848565695991397</v>
+        <v>0.217987848077453</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.91393266666667</v>
+        <v>53.27148833333334</v>
       </c>
       <c r="N12">
-        <v>68.741798</v>
+        <v>159.814465</v>
       </c>
       <c r="O12">
-        <v>0.09244477088342698</v>
+        <v>0.2042488376129897</v>
       </c>
       <c r="P12">
-        <v>0.09842430235492741</v>
+        <v>0.2168927763956593</v>
       </c>
       <c r="Q12">
-        <v>24.28332274866956</v>
+        <v>12.83961841823945</v>
       </c>
       <c r="R12">
-        <v>218.549904738026</v>
+        <v>115.556565764155</v>
       </c>
       <c r="S12">
-        <v>0.08180036284128762</v>
+        <v>0.03985354330840737</v>
       </c>
       <c r="T12">
-        <v>0.0870913905469696</v>
+        <v>0.04727998959003397</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.059762333333333</v>
+        <v>0.2410223333333333</v>
       </c>
       <c r="H13">
-        <v>3.179287</v>
+        <v>0.723067</v>
       </c>
       <c r="I13">
-        <v>0.8848565695991397</v>
+        <v>0.1951224975092479</v>
       </c>
       <c r="J13">
-        <v>0.8848565695991397</v>
+        <v>0.217987848077453</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,772 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.44778433333333</v>
+        <v>55.97408466666666</v>
       </c>
       <c r="N13">
-        <v>247.343353</v>
+        <v>167.922254</v>
       </c>
       <c r="O13">
-        <v>0.332630222992183</v>
+        <v>0.2146108938815595</v>
       </c>
       <c r="P13">
-        <v>0.3541454787253825</v>
+        <v>0.22789629141941</v>
       </c>
       <c r="Q13">
-        <v>87.37505630325678</v>
+        <v>13.49100449255755</v>
       </c>
       <c r="R13">
-        <v>786.375506729311</v>
+        <v>121.419040433018</v>
       </c>
       <c r="S13">
-        <v>0.29433003806186</v>
+        <v>0.04187541360686207</v>
       </c>
       <c r="T13">
-        <v>0.313367953443987</v>
+        <v>0.04967862215134931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.4689626666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.406888</v>
+      </c>
+      <c r="I14">
+        <v>0.3796543062756159</v>
+      </c>
+      <c r="J14">
+        <v>0.424143941855999</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>30.7693535</v>
+      </c>
+      <c r="N14">
+        <v>61.538707</v>
+      </c>
+      <c r="O14">
+        <v>0.1179731387858698</v>
+      </c>
+      <c r="P14">
+        <v>0.08351747770158975</v>
+      </c>
+      <c r="Q14">
+        <v>14.42967806896933</v>
+      </c>
+      <c r="R14">
+        <v>86.578068413816</v>
+      </c>
+      <c r="S14">
+        <v>0.04478901016490635</v>
+      </c>
+      <c r="T14">
+        <v>0.03542343220622278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.4689626666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.406888</v>
+      </c>
+      <c r="I15">
+        <v>0.3796543062756159</v>
+      </c>
+      <c r="J15">
+        <v>0.424143941855999</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>24.18563533333333</v>
+      </c>
+      <c r="N15">
+        <v>72.556906</v>
+      </c>
+      <c r="O15">
+        <v>0.09273042782012855</v>
+      </c>
+      <c r="P15">
+        <v>0.09847086613229204</v>
+      </c>
+      <c r="Q15">
+        <v>11.34216004094755</v>
+      </c>
+      <c r="R15">
+        <v>102.079440368528</v>
+      </c>
+      <c r="S15">
+        <v>0.03520550624469197</v>
+      </c>
+      <c r="T15">
+        <v>0.04176582131932474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.4689626666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.406888</v>
+      </c>
+      <c r="I16">
+        <v>0.3796543062756159</v>
+      </c>
+      <c r="J16">
+        <v>0.424143941855999</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>81.77185533333333</v>
+      </c>
+      <c r="N16">
+        <v>245.315566</v>
+      </c>
+      <c r="O16">
+        <v>0.3135224286729781</v>
+      </c>
+      <c r="P16">
+        <v>0.3329309033622996</v>
+      </c>
+      <c r="Q16">
+        <v>38.34794733540089</v>
+      </c>
+      <c r="R16">
+        <v>345.131526018608</v>
+      </c>
+      <c r="S16">
+        <v>0.1190301401596858</v>
+      </c>
+      <c r="T16">
+        <v>0.1412106257177644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.4689626666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.406888</v>
+      </c>
+      <c r="I17">
+        <v>0.3796543062756159</v>
+      </c>
+      <c r="J17">
+        <v>0.424143941855999</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>14.8441875</v>
+      </c>
+      <c r="N17">
+        <v>29.688375</v>
+      </c>
+      <c r="O17">
+        <v>0.05691427322647431</v>
+      </c>
+      <c r="P17">
+        <v>0.04029168498874919</v>
+      </c>
+      <c r="Q17">
+        <v>6.9613697545</v>
+      </c>
+      <c r="R17">
+        <v>41.768218527</v>
+      </c>
+      <c r="S17">
+        <v>0.02160774891897796</v>
+      </c>
+      <c r="T17">
+        <v>0.01708947409514826</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.4689626666666666</v>
+      </c>
+      <c r="H18">
+        <v>1.406888</v>
+      </c>
+      <c r="I18">
+        <v>0.3796543062756159</v>
+      </c>
+      <c r="J18">
+        <v>0.424143941855999</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>53.27148833333334</v>
+      </c>
+      <c r="N18">
+        <v>159.814465</v>
+      </c>
+      <c r="O18">
+        <v>0.2042488376129897</v>
+      </c>
+      <c r="P18">
+        <v>0.2168927763956593</v>
+      </c>
+      <c r="Q18">
+        <v>24.98233922610222</v>
+      </c>
+      <c r="R18">
+        <v>224.84105303492</v>
+      </c>
+      <c r="S18">
+        <v>0.07754395075156054</v>
+      </c>
+      <c r="T18">
+        <v>0.09199375714054674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.4689626666666666</v>
+      </c>
+      <c r="H19">
+        <v>1.406888</v>
+      </c>
+      <c r="I19">
+        <v>0.3796543062756159</v>
+      </c>
+      <c r="J19">
+        <v>0.424143941855999</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>55.97408466666666</v>
+      </c>
+      <c r="N19">
+        <v>167.922254</v>
+      </c>
+      <c r="O19">
+        <v>0.2146108938815595</v>
+      </c>
+      <c r="P19">
+        <v>0.22789629141941</v>
+      </c>
+      <c r="Q19">
+        <v>26.24975600950577</v>
+      </c>
+      <c r="R19">
+        <v>236.247804085552</v>
+      </c>
+      <c r="S19">
+        <v>0.08147795003579331</v>
+      </c>
+      <c r="T19">
+        <v>0.09666083137699205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.136549</v>
+      </c>
+      <c r="H20">
+        <v>0.409647</v>
+      </c>
+      <c r="I20">
+        <v>0.1105448675394823</v>
+      </c>
+      <c r="J20">
+        <v>0.1234990229140375</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>30.7693535</v>
+      </c>
+      <c r="N20">
+        <v>61.538707</v>
+      </c>
+      <c r="O20">
+        <v>0.1179731387858698</v>
+      </c>
+      <c r="P20">
+        <v>0.08351747770158975</v>
+      </c>
+      <c r="Q20">
+        <v>4.2015244510715</v>
+      </c>
+      <c r="R20">
+        <v>25.209146706429</v>
+      </c>
+      <c r="S20">
+        <v>0.01304132500030094</v>
+      </c>
+      <c r="T20">
+        <v>0.01031432689239125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.136549</v>
+      </c>
+      <c r="H21">
+        <v>0.409647</v>
+      </c>
+      <c r="I21">
+        <v>0.1105448675394823</v>
+      </c>
+      <c r="J21">
+        <v>0.1234990229140375</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>24.18563533333333</v>
+      </c>
+      <c r="N21">
+        <v>72.556906</v>
+      </c>
+      <c r="O21">
+        <v>0.09273042782012855</v>
+      </c>
+      <c r="P21">
+        <v>0.09847086613229204</v>
+      </c>
+      <c r="Q21">
+        <v>3.302524319131333</v>
+      </c>
+      <c r="R21">
+        <v>29.722718872182</v>
+      </c>
+      <c r="S21">
+        <v>0.01025087286025564</v>
+      </c>
+      <c r="T21">
+        <v>0.01216105575283706</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.136549</v>
+      </c>
+      <c r="H22">
+        <v>0.409647</v>
+      </c>
+      <c r="I22">
+        <v>0.1105448675394823</v>
+      </c>
+      <c r="J22">
+        <v>0.1234990229140375</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>81.77185533333333</v>
+      </c>
+      <c r="N22">
+        <v>245.315566</v>
+      </c>
+      <c r="O22">
+        <v>0.3135224286729781</v>
+      </c>
+      <c r="P22">
+        <v>0.3329309033622996</v>
+      </c>
+      <c r="Q22">
+        <v>11.16586507391133</v>
+      </c>
+      <c r="R22">
+        <v>100.492785665202</v>
+      </c>
+      <c r="S22">
+        <v>0.03465829534831117</v>
+      </c>
+      <c r="T22">
+        <v>0.04111664126313185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.136549</v>
+      </c>
+      <c r="H23">
+        <v>0.409647</v>
+      </c>
+      <c r="I23">
+        <v>0.1105448675394823</v>
+      </c>
+      <c r="J23">
+        <v>0.1234990229140375</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>14.8441875</v>
+      </c>
+      <c r="N23">
+        <v>29.688375</v>
+      </c>
+      <c r="O23">
+        <v>0.05691427322647431</v>
+      </c>
+      <c r="P23">
+        <v>0.04029168498874919</v>
+      </c>
+      <c r="Q23">
+        <v>2.0269589589375</v>
+      </c>
+      <c r="R23">
+        <v>12.161753753625</v>
+      </c>
+      <c r="S23">
+        <v>0.006291580794926509</v>
+      </c>
+      <c r="T23">
+        <v>0.004975983727670718</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.136549</v>
+      </c>
+      <c r="H24">
+        <v>0.409647</v>
+      </c>
+      <c r="I24">
+        <v>0.1105448675394823</v>
+      </c>
+      <c r="J24">
+        <v>0.1234990229140375</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>53.27148833333334</v>
+      </c>
+      <c r="N24">
+        <v>159.814465</v>
+      </c>
+      <c r="O24">
+        <v>0.2042488376129897</v>
+      </c>
+      <c r="P24">
+        <v>0.2168927763956593</v>
+      </c>
+      <c r="Q24">
+        <v>7.274168460428334</v>
+      </c>
+      <c r="R24">
+        <v>65.46751614385501</v>
+      </c>
+      <c r="S24">
+        <v>0.02257866069902119</v>
+      </c>
+      <c r="T24">
+        <v>0.02678604596197675</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.136549</v>
+      </c>
+      <c r="H25">
+        <v>0.409647</v>
+      </c>
+      <c r="I25">
+        <v>0.1105448675394823</v>
+      </c>
+      <c r="J25">
+        <v>0.1234990229140375</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>55.97408466666666</v>
+      </c>
+      <c r="N25">
+        <v>167.922254</v>
+      </c>
+      <c r="O25">
+        <v>0.2146108938815595</v>
+      </c>
+      <c r="P25">
+        <v>0.22789629141941</v>
+      </c>
+      <c r="Q25">
+        <v>7.643205287148667</v>
+      </c>
+      <c r="R25">
+        <v>68.78884758433799</v>
+      </c>
+      <c r="S25">
+        <v>0.0237241328366669</v>
+      </c>
+      <c r="T25">
+        <v>0.02814496931602989</v>
       </c>
     </row>
   </sheetData>
